--- a/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\InGame\Event\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\InGame\Event\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17389EF1-52CB-424C-BCFD-4DF4F8EAA13B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioExcelDatas" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="62">
   <si>
     <t>ScenarioId</t>
   </si>
@@ -64,12 +65,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Random,2</t>
-  </si>
-  <si>
-    <t>(1~3웨이브)스탯업</t>
   </si>
   <si>
     <t>검은색 슬라임의 시체들이 널부러져 있다. 몸 속에 반짝이는걸 꺼내본다.</t>
@@ -260,11 +255,23 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ApplyAbility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyPercentage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -327,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -351,6 +358,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -565,14 +573,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -591,13 +599,13 @@
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -620,6 +628,12 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
@@ -629,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
@@ -676,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -691,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
@@ -729,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
@@ -744,22 +758,16 @@
         <v>12</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -786,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -798,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="8"/>
@@ -833,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -848,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" s="8">
         <v>1</v>
@@ -886,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
@@ -901,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
@@ -937,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -949,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -984,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -996,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>14</v>
@@ -1005,10 +1013,14 @@
         <v>2</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="3">
+        <v>90</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1037,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
@@ -1052,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
@@ -1088,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -1100,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1135,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -1147,19 +1159,23 @@
         <v>1000</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="8">
-        <v>2</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="3">
+        <v>110</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1188,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
@@ -1203,7 +1219,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
@@ -1239,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -1251,13 +1267,13 @@
         <v>5000</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1286,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -1298,19 +1314,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15" s="8">
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1339,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D16" s="8">
         <v>2</v>
@@ -1354,14 +1370,14 @@
         <v>12</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1390,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -1402,7 +1418,7 @@
         <v>10000</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1437,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -1449,12 +1465,12 @@
         <v>2500</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1486,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" s="9">
         <v>2</v>
@@ -1498,12 +1514,12 @@
         <v>2500</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1535,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" s="9">
         <v>3</v>
@@ -1547,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9" t="s">
@@ -1586,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -1598,7 +1614,7 @@
         <v>10000</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -1633,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -1645,16 +1661,16 @@
         <v>2500</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9">
         <v>-1</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1686,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23" s="9">
         <v>2</v>
@@ -1698,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1735,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
@@ -1747,7 +1763,7 @@
         <v>10000</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -1782,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
@@ -1794,19 +1810,19 @@
         <v>2500</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9">
         <v>-1</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
@@ -1835,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D26" s="9">
         <v>2</v>
@@ -1847,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -1882,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
@@ -1894,13 +1910,13 @@
         <v>10000</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -1929,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
@@ -1941,19 +1957,19 @@
         <v>2500</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9">
         <v>-1</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -1982,7 +1998,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="9">
         <v>2</v>
@@ -1994,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -2029,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
@@ -2041,13 +2057,13 @@
         <v>10000</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2076,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D31" s="9">
         <v>1</v>
@@ -2088,19 +2104,19 @@
         <v>0</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9">
         <v>3</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -2129,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D32" s="9">
         <v>2</v>
@@ -2141,15 +2157,15 @@
         <v>0</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -2178,19 +2194,19 @@
         <v>4</v>
       </c>
       <c r="C33" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D33" s="10">
         <v>0</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" s="10">
         <v>10000</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -2225,28 +2241,28 @@
         <v>4</v>
       </c>
       <c r="C34" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F34" s="10">
         <v>10000</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I34" s="10">
         <v>-1</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -2278,19 +2294,19 @@
         <v>4</v>
       </c>
       <c r="C35" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D35" s="10">
         <v>2</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
@@ -2327,19 +2343,19 @@
         <v>4</v>
       </c>
       <c r="C36" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D36" s="10">
         <v>0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36" s="10">
         <v>10000</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -2374,20 +2390,20 @@
         <v>4</v>
       </c>
       <c r="C37" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I37" s="10">
         <v>2</v>
@@ -2425,20 +2441,20 @@
         <v>4</v>
       </c>
       <c r="C38" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" s="10">
         <v>2</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I38" s="10">
         <v>2</v>
@@ -2476,26 +2492,26 @@
         <v>4</v>
       </c>
       <c r="C39" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D39" s="10">
         <v>3</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I39" s="10">
         <v>-1</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -2527,22 +2543,22 @@
         <v>4</v>
       </c>
       <c r="C40" s="10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D40" s="10">
         <v>4</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F40" s="10">
         <v>0</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I40" s="10">
         <v>1</v>
@@ -2580,19 +2596,19 @@
         <v>4</v>
       </c>
       <c r="C41" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D41" s="10">
         <v>0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F41" s="10">
         <v>10000</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -2627,20 +2643,20 @@
         <v>4</v>
       </c>
       <c r="C42" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D42" s="10">
         <v>1</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I42" s="10">
         <v>3</v>
@@ -2678,26 +2694,26 @@
         <v>4</v>
       </c>
       <c r="C43" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D43" s="10">
         <v>2</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I43" s="10">
         <v>-2</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -2729,20 +2745,20 @@
         <v>4</v>
       </c>
       <c r="C44" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D44" s="10">
         <v>3</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I44" s="10">
         <v>3</v>
@@ -2750,6 +2766,8 @@
       <c r="J44" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
@@ -2759,22 +2777,22 @@
         <v>4</v>
       </c>
       <c r="C45" s="10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D45" s="10">
         <v>4</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F45" s="10">
         <v>0</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I45" s="10">
         <v>2</v>
@@ -2782,6 +2800,8 @@
       <c r="J45" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\InGame\Event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17389EF1-52CB-424C-BCFD-4DF4F8EAA13B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8448C74E-9578-4EDB-996B-E7DBF41A2061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
   <si>
     <t>ScenarioId</t>
   </si>
@@ -49,9 +49,6 @@
     <t>SumAndResult</t>
   </si>
   <si>
-    <t>빨간색 슬라임의 시체들이 널부러져 있다. 몸 속에 반짝이는걸 꺼내본다.</t>
-  </si>
-  <si>
     <t>반짝이는게 보이는 것 같은데..?</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>검은 물체가 보이는 것 같은데..?</t>
-  </si>
-  <si>
-    <t>2웨이브 아군 전체 최대체력 10% 다운</t>
   </si>
   <si>
     <t>흰색 슬라임의 시체들이 널부러져 있다. 몸 속에 반짝이는걸 꺼내본다.</t>
@@ -120,13 +114,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
     <t>파란색 슬라임의 시체들이 널부러져 있다. 몸 속에 반짝이는걸 꺼내본다.</t>
-  </si>
-  <si>
-    <t>2웨이브 아군 전체 최대체력 10% 상승</t>
   </si>
   <si>
     <t>무지개 슬라임의 시체들이 널부러져 있다. 몸 속에 반짝이는걸 꺼내본다.</t>
@@ -265,6 +253,407 @@
   </si>
   <si>
     <t>Health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반짝이는걸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꺼내본다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빨간색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>슬라임의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시체들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>널부러져</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1골드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웨이브동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아군</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대체력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웨이브동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아군</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대체력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상승</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -294,6 +683,26 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -334,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -359,6 +768,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -579,8 +994,8 @@
   </sheetPr>
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -599,13 +1014,13 @@
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -629,13 +1044,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -654,8 +1069,8 @@
       <c r="F2" s="8">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>9</v>
+      <c r="G2" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -682,7 +1097,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -701,17 +1116,17 @@
       <c r="F3" s="8">
         <v>1000</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>32</v>
+      <c r="G3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="I3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>11</v>
+      <c r="J3" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -755,14 +1170,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
@@ -806,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="8"/>
@@ -833,7 +1248,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -853,16 +1268,16 @@
         <v>1000</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="I6" s="8">
         <v>1</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>11</v>
+      <c r="J6" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -906,14 +1321,14 @@
         <v>0</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -957,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -984,7 +1399,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -1004,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>17</v>
+      <c r="J9" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L9" s="3">
         <v>90</v>
@@ -1061,14 +1476,14 @@
         <v>2000</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1112,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -1139,7 +1554,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -1159,19 +1574,19 @@
         <v>1000</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="I12" s="8">
         <v>2</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>34</v>
+      <c r="J12" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L12" s="3">
         <v>110</v>
@@ -1216,14 +1631,14 @@
         <v>0</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1267,7 +1682,7 @@
         <v>5000</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1314,16 +1729,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I15" s="8">
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1367,14 +1782,14 @@
         <v>0</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1415,10 +1830,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="9">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1465,12 +1880,12 @@
         <v>2500</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1514,12 +1929,12 @@
         <v>2500</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1563,14 +1978,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -1611,10 +2026,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="9">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -1661,16 +2076,16 @@
         <v>2500</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="I22" s="9">
         <v>-1</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1714,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1760,10 +2175,10 @@
         <v>8</v>
       </c>
       <c r="F24" s="9">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -1810,16 +2225,16 @@
         <v>2500</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="I25" s="9">
         <v>-1</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1863,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -1907,10 +2322,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="9">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1957,16 +2372,16 @@
         <v>2500</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="I28" s="9">
         <v>-1</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2010,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -2057,7 +2472,7 @@
         <v>10000</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -2104,16 +2519,16 @@
         <v>0</v>
       </c>
       <c r="G31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="I31" s="9">
         <v>3</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2157,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2200,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F33" s="10">
         <v>10000</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -2247,22 +2662,22 @@
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F34" s="10">
         <v>10000</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I34" s="10">
         <v>-1</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -2300,18 +2715,18 @@
         <v>2</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -2349,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F36" s="10">
         <v>10000</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -2396,20 +2811,20 @@
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I37" s="10">
         <v>2</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -2447,20 +2862,20 @@
         <v>2</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I38" s="10">
         <v>2</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -2498,20 +2913,20 @@
         <v>3</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I39" s="10">
         <v>-1</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -2549,22 +2964,22 @@
         <v>4</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F40" s="10">
         <v>0</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I40" s="10">
         <v>1</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -2602,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F41" s="10">
         <v>10000</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -2649,20 +3064,20 @@
         <v>1</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I42" s="10">
         <v>3</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -2700,20 +3115,20 @@
         <v>2</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I43" s="10">
         <v>-2</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -2751,20 +3166,20 @@
         <v>3</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I44" s="10">
         <v>3</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -2783,22 +3198,22 @@
         <v>4</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F45" s="10">
         <v>0</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="I45" s="10">
         <v>2</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>

--- a/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\InGame\Event\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\InGame\Event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315F36D6-70C1-4E69-9612-68CD99C73464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioExcelDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
   <si>
     <t>ScenarioId</t>
   </si>
@@ -654,13 +653,21 @@
   </si>
   <si>
     <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyTurn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImagePath</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1062,14 +1069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1122,6 +1129,12 @@
       </c>
       <c r="L1" s="5" t="s">
         <v>56</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="13.5" x14ac:dyDescent="0.25">
@@ -1510,7 +1523,9 @@
       <c r="L9" s="16">
         <v>90</v>
       </c>
-      <c r="M9" s="16"/>
+      <c r="M9" s="16">
+        <v>2</v>
+      </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
@@ -1665,7 +1680,9 @@
       <c r="L12" s="16">
         <v>110</v>
       </c>
-      <c r="M12" s="16"/>
+      <c r="M12" s="16">
+        <v>2</v>
+      </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>

--- a/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1681,7 +1681,7 @@
         <v>110</v>
       </c>
       <c r="M12" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>

--- a/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\InGame\Event\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\InGame\Event\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1170D642-D3CD-455F-8667-BF3DC0F9BF84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioExcelDatas" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
   <si>
     <t>ScenarioId</t>
   </si>
@@ -661,14 +662,57 @@
   </si>
   <si>
     <t>ImagePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코인 소모</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -708,6 +752,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -798,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -854,6 +905,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,14 +1123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2147,7 +2201,7 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>1</v>
       </c>
@@ -2166,14 +2220,14 @@
       <c r="F22" s="8">
         <v>2500</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>41</v>
+      <c r="G22" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>58</v>
       </c>
       <c r="I22" s="8">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>21</v>

--- a/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/InGame/Event/InGameEvent_ScenarioDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\InGame\Event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1170D642-D3CD-455F-8667-BF3DC0F9BF84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47DC608-A5B2-4735-9EBD-D67B30E2C667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioExcelDatas" sheetId="1" r:id="rId1"/>
@@ -1129,8 +1129,8 @@
   </sheetPr>
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
